--- a/target/test-classes/Book2.xlsx
+++ b/target/test-classes/Book2.xlsx
@@ -13,12 +13,284 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="89">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>Akim</t>
+  </si>
+  <si>
+    <t>Akimov</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>Pamuk</t>
+  </si>
+  <si>
+    <t>Ayse</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>Den Mel</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>Pasha</t>
+  </si>
+  <si>
+    <t>Beyza</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>Addison</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>Ann Maria</t>
+  </si>
+  <si>
+    <t>Espaniollo</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Hana1</t>
+  </si>
+  <si>
+    <t>Sara1</t>
+  </si>
+  <si>
+    <t>Lara1</t>
+  </si>
+  <si>
+    <t>Clara1</t>
+  </si>
+  <si>
+    <t>Tara1</t>
+  </si>
+  <si>
+    <t>Lana1</t>
+  </si>
+  <si>
+    <t>Hana.</t>
+  </si>
+  <si>
+    <t>Sara.</t>
+  </si>
+  <si>
+    <t>Lara.</t>
+  </si>
+  <si>
+    <t>Clara.</t>
+  </si>
+  <si>
+    <t>Tara.</t>
+  </si>
+  <si>
+    <t>Lana.</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>Ali O</t>
+  </si>
+  <si>
+    <t>Genc</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>Ciguli Ajdar</t>
+  </si>
+  <si>
+    <t>Giller</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Jabar</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>0245</t>
+  </si>
+  <si>
+    <t>firstName middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>k l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Maharjan</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>Abraham MoonDay</t>
+  </si>
+  <si>
+    <t>Sergeant</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -947,14 +1219,2015 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:OJ400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="W23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="X24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="Z26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="AA27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="AB28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="AC29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="AD30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="AE31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="AF32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="AG33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AH34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AI35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AJ36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AK37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AL38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AM39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="AN40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="AO41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="AP42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AQ43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AR44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="AS45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="AT46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="AU47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="AV48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="AW49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="AX50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="AY51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="AZ52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="BA53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="BB54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="BC55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="BD56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="BE57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="BF58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="BG59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="BH60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="BI61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="BJ62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="BK63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="BL64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="BM65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="BN66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="BO67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="BP68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="BQ69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="BR70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="BS71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="BT72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="BU73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="BV74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="BW75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="BX76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="BY77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="BZ78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="CA79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="CB80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="CC81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="CD82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="CE83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="CF84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="CG85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="CH86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="CI87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="CJ88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="CK89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="CL90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="CM91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="CN92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="CO93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="CP94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="CQ95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="CR96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="CS97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="CT98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="CU99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="CV100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="CW101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="CX102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="CY103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="CZ104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="DA105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="DB106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="DC107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="DD108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="DE109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="DF110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="DG111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="DH112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="DI113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="DJ114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="DK115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="DL116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="DM117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="DN118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="DO119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="DP120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="DQ121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="DR122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="DS123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="DT124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="DU125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="DV126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="DW127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="DX128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="DY129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="DZ130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="EA131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="EB132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="EC133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="ED134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="EE135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="EF136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="EG137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="EH138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="EI139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="EJ140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="EK141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="EL142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="EM143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="EN144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="EO145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="EP146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="EQ147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="ER148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="ES149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="ET150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="EU151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="EV152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="EW153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="EX154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="EY155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="EZ156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="FA157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="FB158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="FC159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="FD160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="FE161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="FF162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="FG163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="FH164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="FI165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="FJ166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="FK167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="FL168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="FM169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="FN170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="FO171" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="FP172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="FQ173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="FR174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="FS175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="FT176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="FU177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="FV178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="FW179" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="FX180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="FY181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="FZ182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="GA183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="GB184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="GC185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="GD186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="GE187" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="GF188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="GG189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="GH190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="GI191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="GJ192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="GK193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="GL194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="GM195" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="GN196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="GO197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="GP198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="GQ199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="GR200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="GS201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="GT202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="GU203" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="GV204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="GW205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="GX206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="GY207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="GZ208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="HA209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="HB210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="HC211" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="HD212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="HE213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="HF214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="HG215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="HH216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="HI217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="HJ218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="HK219" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="HL220" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="HM221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="HN222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="HO223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="HP224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="HQ225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="HR226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="HS227" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="HT228" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="HU229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="HV230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="HW231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="HX232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="HY233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="HZ234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="IA235" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="IB236" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="IC237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="ID238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="IE239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="IF240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="IG241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="IH242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="II243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="IJ244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="IK245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="IL246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="IM247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="IN248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="IO249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="IP250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="IQ251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="IR252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="IS253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="IT254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="IU255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="IV256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="IW257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="IX258" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="IY259" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="IZ260" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="JA261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="JB262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="JC263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="JD264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="JE265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="JF266" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="JG267" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="JH268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="JI269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="JJ270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="JK271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="JL272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="JM273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="JN274" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="JO275" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="JP276" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="JQ277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="JR278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="JS279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="JT280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="JU281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="JV282" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="JW283" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="JX284" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="JY285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="JZ286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="KA287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="KB288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="KC289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="KD290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="KE291" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="KF292" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="KG293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="KH294" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="KI295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="KJ296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="KK297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="KL298" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="KM299" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="KN300" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="KO301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="KP302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="KQ303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="KR304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="KS305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="KT306" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="KU307" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="KV308" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="KW309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="KX310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="KY311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="KZ312" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="LA313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="LB314" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="LC315" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="LD316" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="LE317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="LF318" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="LG319" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="LH320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="LI321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="LJ322" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="LK323" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="LL324" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="LM325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="LN326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="LO327" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="LP328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="LQ329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="LR330" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="LS331" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="LT332" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="LU333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="LV334" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="LW335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="LX336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="LY337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="LZ338" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="MA339" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="MB340" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="MC341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="MD342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="ME343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="MF344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="MG345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="MH346" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="MI347" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="MJ348" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="MK349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="ML350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="MM351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="MN352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="MO353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="MP354" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="MQ355" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="MR356" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="MS357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="MT358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="MU359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="MV360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="MW361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="MX362" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="MY363" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="MZ364" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="NA365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="NB366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="NC367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="ND368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="NE369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="NF370" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="NG371" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="NH372" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="NI373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="NJ374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="NK375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="NL376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="NM377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="NN378" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="NO379" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="NP380" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="NQ381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="NR382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="NS383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="NT384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="NU385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="NV386" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="NW387" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="NX388" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="NY389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="NZ390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="OA391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="OB392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="OC393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="OD394" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="OE395" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="OF396" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="OG397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="OH398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="OI399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="OJ400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
